--- a/r_input/hurda_tesviki.xlsx
+++ b/r_input/hurda_tesviki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72730B54-FFF5-4BDF-9798-53A7EB1A7C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA9814A-C44C-4107-9C2D-D724700E90E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A28CCFF-135B-4345-98CD-4416B433170E}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -96,7 +96,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>3000000000</v>
+        <v>2000000000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/r_input/hurda_tesviki.xlsx
+++ b/r_input/hurda_tesviki.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA9814A-C44C-4107-9C2D-D724700E90E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E348E52-2A23-4D9C-A061-7966F8FDE910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A28CCFF-135B-4345-98CD-4416B433170E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5A28CCFF-135B-4345-98CD-4416B433170E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="binek_arac" sheetId="1" r:id="rId1"/>
+    <sheet name="LCV" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>degisken</t>
   </si>
@@ -41,20 +42,19 @@
     <t>deger</t>
   </si>
   <si>
-    <t>toplam_hurda_tesviki_butcesi</t>
+    <t>yeni_arac_indirim_orani_grup1</t>
   </si>
   <si>
-    <t>yeni_arac_indirim_orani</t>
+    <t>yeni_arac_indirim_orani_grup2</t>
+  </si>
+  <si>
+    <t>LCV_hurda_tesvik_orani</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,6 +65,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -90,17 +91,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Virgül" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CCE55F-1B0A-4E57-81A5-BBA6925D903A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,10 +424,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -436,8 +435,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>2000000000</v>
+      <c r="B2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,6 +444,41 @@
         <v>3</v>
       </c>
       <c r="B3">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F934A6B-718F-414A-992F-B147EBB116BA}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>0.15</v>
       </c>
     </row>

--- a/r_input/hurda_tesviki.xlsx
+++ b/r_input/hurda_tesviki.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E348E52-2A23-4D9C-A061-7966F8FDE910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1828C25B-EFAC-40D4-B3EE-16220DE29480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5A28CCFF-135B-4345-98CD-4416B433170E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5A28CCFF-135B-4345-98CD-4416B433170E}"/>
   </bookViews>
   <sheets>
     <sheet name="binek_arac" sheetId="1" r:id="rId1"/>
     <sheet name="LCV" sheetId="2" r:id="rId2"/>
+    <sheet name="HDV" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>degisken</t>
   </si>
@@ -49,6 +50,9 @@
   </si>
   <si>
     <t>LCV_hurda_tesvik_orani</t>
+  </si>
+  <si>
+    <t>HDV_hurda_tesvik_orani</t>
   </si>
 </sst>
 </file>
@@ -414,7 +418,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F934A6B-718F-414A-992F-B147EBB116BA}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,4 +489,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A069E5F-A95C-4EFD-A754-6B82568E03B6}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/r_input/hurda_tesviki.xlsx
+++ b/r_input/hurda_tesviki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1828C25B-EFAC-40D4-B3EE-16220DE29480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFABFB62-2567-4CA8-BCFD-76A1364FFBC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5A28CCFF-135B-4345-98CD-4416B433170E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A28CCFF-135B-4345-98CD-4416B433170E}"/>
   </bookViews>
   <sheets>
     <sheet name="binek_arac" sheetId="1" r:id="rId1"/>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CCE55F-1B0A-4E57-81A5-BBA6925D903A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A069E5F-A95C-4EFD-A754-6B82568E03B6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/r_input/hurda_tesviki.xlsx
+++ b/r_input/hurda_tesviki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\eski bilgisayarlar\ICCT harddisk\ICCT blgisayar\Turkey- Tax System\R\TR_tax_system\r_input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcinar\Desktop\TR tax system\TR_tax_system-master_201004_ideal\r_input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFABFB62-2567-4CA8-BCFD-76A1364FFBC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774A62A2-9D4D-4A75-A07D-F08854181E43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A28CCFF-135B-4345-98CD-4416B433170E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5A28CCFF-135B-4345-98CD-4416B433170E}"/>
   </bookViews>
   <sheets>
     <sheet name="binek_arac" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -119,7 +117,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -417,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CCE55F-1B0A-4E57-81A5-BBA6925D903A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -462,7 +460,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A069E5F-A95C-4EFD-A754-6B82568E03B6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
